--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1125290.754233276</v>
+        <v>1120237.079518655</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24104047.79063754</v>
+        <v>24104047.79063753</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8461764.091366263</v>
+        <v>8461764.091366261</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.99499061398264</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>74.97559280329753</v>
+        <v>27.43764783748724</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>88.08996420138516</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.1173860389223</v>
@@ -1508,13 +1508,13 @@
         <v>195.3017141927292</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>78.01547291480151</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>38.11598261691219</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>139.5473206610679</v>
       </c>
       <c r="I13" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.10931561104034</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S13" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.1780882829155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>148.4064311835325</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>145.8852895314635</v>
       </c>
       <c r="G14" t="n">
         <v>402.4936277569416</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1694,16 +1694,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>8.030290487260809</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>104.7712654402038</v>
       </c>
       <c r="H15" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>153.1173860389223</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3017141927292</v>
+        <v>35.11717597596543</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>141.8918591868394</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -1782,10 +1782,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I16" t="n">
-        <v>86.2153968693336</v>
+        <v>86.21539686933359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104034</v>
+        <v>41.10931561104032</v>
       </c>
       <c r="S16" t="n">
         <v>167.7412420701844</v>
@@ -1821,19 +1821,19 @@
         <v>233.0375990857039</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>250.4058497098793</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>17.65171650689645</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.701627844419832</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>106.9711708370077</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1925,16 +1925,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>32.81513000648452</v>
+        <v>8.030290487261652</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>104.7712654402038</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.964892300832</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S19" t="n">
-        <v>134.9877720519815</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>285.807623447931</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V20" t="n">
-        <v>282.9108999479307</v>
+        <v>109.3108784605902</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>46.55034267947443</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>58.94334016289027</v>
@@ -2216,7 +2216,7 @@
         <v>153.1173860389223</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3017141927292</v>
+        <v>80.94510125327901</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2228,7 +2228,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6146493334786</v>
+        <v>43.52781403019821</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I22" t="n">
-        <v>76.614247877201</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>320.2811356935118</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>118.0945829750026</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H24" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T24" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>195.3017141927292</v>
       </c>
       <c r="V24" t="n">
-        <v>78.01547291480128</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>167.4955698646547</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2484,7 +2484,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2493,10 +2493,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I25" t="n">
-        <v>86.2153968693336</v>
+        <v>11.87061099482004</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V25" t="n">
-        <v>259.6907058578779</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>206.3642018876502</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>113.9044791554594</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>21.39752317821014</v>
       </c>
       <c r="D27" t="n">
         <v>115.7281862028015</v>
@@ -2645,7 +2645,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>63.3051246821624</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>104.7712654402038</v>
@@ -2699,7 +2699,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.59664198487314</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>104.2185242903367</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>40.80277793234998</v>
       </c>
       <c r="C29" t="n">
-        <v>75.265935271952</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>18.29850759909347</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H30" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>133.6660716733271</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2967,10 +2967,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.151522948909638</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U31" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>55.17620567500229</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>238.8961654808825</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>144.1952298986821</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>29.25542836169115</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>74.72273151043724</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>15.48351407564931</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>65.73192948709006</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>51.98700216418818</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>107.1102381929061</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3347,7 +3347,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -3356,13 +3356,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77.24184776198372</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>153.1173860389223</v>
@@ -3410,7 +3410,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>148.8740642397212</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>26.75005697640587</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>21.19057291199438</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>172.2124272024301</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>333.4990271524377</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
@@ -3599,7 +3599,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H39" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0903442403026</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U39" t="n">
         <v>195.3017141927292</v>
@@ -3644,7 +3644,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>170.2041862118659</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.6063325463609</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3678,10 +3678,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H40" t="n">
-        <v>24.09321917551413</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I40" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>373.8992860034879</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
-        <v>223.5204524665519</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>66.64462819781147</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7712654402038</v>
+        <v>30.15566678099876</v>
       </c>
       <c r="H42" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U42" t="n">
         <v>195.3017141927292</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I43" t="n">
-        <v>86.2153968693336</v>
+        <v>10.13210254363554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>98.93657678389701</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>274.1680187415936</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V44" t="n">
-        <v>190.0352819089651</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>99.84323922070031</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7712654402038</v>
+        <v>38.76077309947154</v>
       </c>
       <c r="H45" t="n">
         <v>58.94334016289027</v>
@@ -4109,7 +4109,7 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T45" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>195.3017141927292</v>
@@ -4118,7 +4118,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>20.75290813131622</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I46" t="n">
-        <v>40.96030310353349</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.03508875139924</v>
+        <v>1277.964936237322</v>
       </c>
       <c r="C11" t="n">
-        <v>36.03508875139924</v>
+        <v>1277.964936237322</v>
       </c>
       <c r="D11" t="n">
-        <v>36.03508875139924</v>
+        <v>1277.964936237322</v>
       </c>
       <c r="E11" t="n">
-        <v>36.03508875139924</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="F11" t="n">
-        <v>36.03508875139924</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G11" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H11" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I11" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J11" t="n">
-        <v>143.8778192802976</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K11" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L11" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019887</v>
       </c>
       <c r="M11" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N11" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O11" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P11" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q11" t="n">
-        <v>1754.652407274058</v>
+        <v>1754.652407274059</v>
       </c>
       <c r="R11" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.900911697252</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T11" t="n">
-        <v>1503.18950596363</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="U11" t="n">
-        <v>1246.302539355193</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="V11" t="n">
-        <v>896.4649846916734</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="W11" t="n">
-        <v>512.704683826842</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="X11" t="n">
-        <v>436.9717618033092</v>
+        <v>1688.186115901811</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.03508875139924</v>
+        <v>1688.186115901811</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>636.732992664729</v>
+        <v>681.7483020962025</v>
       </c>
       <c r="C12" t="n">
-        <v>547.753230845148</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D12" t="n">
-        <v>430.8560730645404</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E12" t="n">
-        <v>310.3632570568684</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F12" t="n">
-        <v>201.403377239373</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G12" t="n">
-        <v>95.57381618866214</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H12" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I12" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J12" t="n">
-        <v>92.64425224016347</v>
+        <v>92.64425224016351</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0510332309564</v>
+        <v>221.0510332309565</v>
       </c>
       <c r="L12" t="n">
-        <v>666.985256529522</v>
+        <v>412.4704258219193</v>
       </c>
       <c r="M12" t="n">
-        <v>898.2021906234819</v>
+        <v>643.6873599158794</v>
       </c>
       <c r="N12" t="n">
-        <v>1141.374250146327</v>
+        <v>886.8594194387241</v>
       </c>
       <c r="O12" t="n">
-        <v>1354.830160036264</v>
+        <v>1100.315329328662</v>
       </c>
       <c r="P12" t="n">
-        <v>1612.503176317612</v>
+        <v>1263.802623792245</v>
       </c>
       <c r="Q12" t="n">
-        <v>1701.572828547835</v>
+        <v>1709.73684709081</v>
       </c>
       <c r="R12" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.321165289599</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.382680207123</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.671153200157</v>
+        <v>1371.012444492737</v>
       </c>
       <c r="W12" t="n">
-        <v>936.4379849364856</v>
+        <v>1157.779276229066</v>
       </c>
       <c r="X12" t="n">
-        <v>936.4379849364856</v>
+        <v>981.4532943679591</v>
       </c>
       <c r="Y12" t="n">
-        <v>777.0360253003156</v>
+        <v>822.0513347317891</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>588.2040083385057</v>
+        <v>376.4037859820496</v>
       </c>
       <c r="C13" t="n">
-        <v>588.2040083385057</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="D13" t="n">
-        <v>428.7093636614156</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="E13" t="n">
-        <v>428.7093636614156</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="F13" t="n">
-        <v>264.0782377720069</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="G13" t="n">
-        <v>264.0782377720069</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H13" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I13" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J13" t="n">
-        <v>52.53617997680178</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K13" t="n">
-        <v>317.8801229324887</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L13" t="n">
-        <v>719.5523464932869</v>
+        <v>199.2930416725498</v>
       </c>
       <c r="M13" t="n">
-        <v>1158.298392094215</v>
+        <v>638.0390872734782</v>
       </c>
       <c r="N13" t="n">
-        <v>1585.06481605534</v>
+        <v>1064.805511234602</v>
       </c>
       <c r="O13" t="n">
-        <v>1664.338463023298</v>
+        <v>1459.153917621301</v>
       </c>
       <c r="P13" t="n">
-        <v>1724.450664640622</v>
+        <v>1780.163602711743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="R13" t="n">
         <v>1760.229876346689</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.794278295997</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="T13" t="n">
-        <v>1590.794278295997</v>
+        <v>1355.402764068014</v>
       </c>
       <c r="U13" t="n">
-        <v>1590.794278295997</v>
+        <v>1355.402764068014</v>
       </c>
       <c r="V13" t="n">
-        <v>1316.908533235519</v>
+        <v>1081.517019007536</v>
       </c>
       <c r="W13" t="n">
-        <v>1037.838868744393</v>
+        <v>802.4473545164105</v>
       </c>
       <c r="X13" t="n">
-        <v>799.4950066040769</v>
+        <v>564.103492376094</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.2040083385057</v>
+        <v>564.103492376094</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1417.99413670513</v>
+        <v>589.9531870225156</v>
       </c>
       <c r="C14" t="n">
-        <v>1417.99413670513</v>
+        <v>589.9531870225156</v>
       </c>
       <c r="D14" t="n">
-        <v>1013.530206798191</v>
+        <v>589.9531870225156</v>
       </c>
       <c r="E14" t="n">
-        <v>863.6247207542184</v>
+        <v>589.9531870225156</v>
       </c>
       <c r="F14" t="n">
         <v>442.594308707906</v>
       </c>
       <c r="G14" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H14" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I14" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J14" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K14" t="n">
-        <v>326.0552168887693</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L14" t="n">
-        <v>567.007601401988</v>
+        <v>567.0076014019886</v>
       </c>
       <c r="M14" t="n">
-        <v>847.9396778919397</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N14" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O14" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P14" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q14" t="n">
         <v>1754.652407274058</v>
@@ -5317,13 +5317,13 @@
         <v>1801.754437569962</v>
       </c>
       <c r="W14" t="n">
-        <v>1417.99413670513</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="X14" t="n">
-        <v>1417.99413670513</v>
+        <v>1401.111039738915</v>
       </c>
       <c r="Y14" t="n">
-        <v>1417.99413670513</v>
+        <v>1000.174366687005</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.4070108036216</v>
+        <v>622.2095746589395</v>
       </c>
       <c r="C15" t="n">
-        <v>326.4119395525673</v>
+        <v>488.2145034078852</v>
       </c>
       <c r="D15" t="n">
-        <v>209.5147817719597</v>
+        <v>371.3173456272776</v>
       </c>
       <c r="E15" t="n">
-        <v>201.403377239373</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F15" t="n">
-        <v>201.403377239373</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G15" t="n">
-        <v>95.57381618866214</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H15" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I15" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J15" t="n">
-        <v>92.64425224016347</v>
+        <v>92.64425224016354</v>
       </c>
       <c r="K15" t="n">
-        <v>287.3046569213412</v>
+        <v>221.0510332309565</v>
       </c>
       <c r="L15" t="n">
-        <v>478.724049512304</v>
+        <v>412.4704258219194</v>
       </c>
       <c r="M15" t="n">
-        <v>709.9409836062639</v>
+        <v>643.6873599158795</v>
       </c>
       <c r="N15" t="n">
-        <v>953.1130431291085</v>
+        <v>886.8594194387242</v>
       </c>
       <c r="O15" t="n">
-        <v>1166.568953019046</v>
+        <v>1100.315329328662</v>
       </c>
       <c r="P15" t="n">
-        <v>1612.503176317612</v>
+        <v>1263.802623792245</v>
       </c>
       <c r="Q15" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R15" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.321165289599</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.657138987657</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.382680207123</v>
+        <v>1525.185244062441</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.671153200157</v>
+        <v>1311.473717055474</v>
       </c>
       <c r="W15" t="n">
-        <v>936.4379849364853</v>
+        <v>1098.240548791803</v>
       </c>
       <c r="X15" t="n">
-        <v>760.1120030753782</v>
+        <v>921.9145669306961</v>
       </c>
       <c r="Y15" t="n">
-        <v>600.7100434392082</v>
+        <v>762.5126072945261</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.3591955336524</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="C16" t="n">
-        <v>758.2658230953689</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="D16" t="n">
-        <v>614.9407128056321</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="E16" t="n">
-        <v>454.0298976739516</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="F16" t="n">
-        <v>289.3987717845429</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="G16" t="n">
-        <v>123.1213482153726</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H16" t="n">
         <v>123.1213482153726</v>
       </c>
       <c r="I16" t="n">
-        <v>36.03508875139923</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J16" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K16" t="n">
-        <v>382.8814865638251</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L16" t="n">
-        <v>784.5537101246232</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M16" t="n">
-        <v>878.3334062112662</v>
+        <v>955.5991590652432</v>
       </c>
       <c r="N16" t="n">
-        <v>1305.09983017239</v>
+        <v>1382.365583026367</v>
       </c>
       <c r="O16" t="n">
-        <v>1384.373477140348</v>
+        <v>1461.639229994325</v>
       </c>
       <c r="P16" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q16" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R16" t="n">
-        <v>1760.229876346688</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.794278295997</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="T16" t="n">
-        <v>1355.402764068013</v>
+        <v>1355.402764068014</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.402764068013</v>
+        <v>1072.657687568972</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.402764068013</v>
+        <v>819.7224858418213</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.402764068013</v>
+        <v>819.7224858418213</v>
       </c>
       <c r="X16" t="n">
-        <v>1117.058901927697</v>
+        <v>819.7224858418213</v>
       </c>
       <c r="Y16" t="n">
-        <v>1117.058901927697</v>
+        <v>594.9867872305859</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.76400576596473</v>
+        <v>53.86510542503203</v>
       </c>
       <c r="C17" t="n">
-        <v>38.76400576596473</v>
+        <v>53.86510542503203</v>
       </c>
       <c r="D17" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="E17" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F17" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G17" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H17" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I17" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J17" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K17" t="n">
-        <v>326.0552168887693</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L17" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M17" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N17" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O17" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P17" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q17" t="n">
         <v>1754.652407274058</v>
@@ -5548,19 +5548,19 @@
         <v>1589.04303183634</v>
       </c>
       <c r="U17" t="n">
-        <v>1332.156065227903</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V17" t="n">
-        <v>1224.104377513753</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="W17" t="n">
-        <v>840.3440766489221</v>
+        <v>855.4451763079894</v>
       </c>
       <c r="X17" t="n">
-        <v>439.7006788178746</v>
+        <v>454.8017784769419</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.76400576596473</v>
+        <v>53.86510542503203</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.407010803622</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C18" t="n">
-        <v>460.407010803622</v>
+        <v>326.4119395525682</v>
       </c>
       <c r="D18" t="n">
-        <v>343.5098530230144</v>
+        <v>209.5147817719606</v>
       </c>
       <c r="E18" t="n">
-        <v>310.3632570568685</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="F18" t="n">
-        <v>201.403377239373</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G18" t="n">
-        <v>95.57381618866215</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H18" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I18" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J18" t="n">
-        <v>92.64425224016347</v>
+        <v>111.4709909898562</v>
       </c>
       <c r="K18" t="n">
-        <v>538.5784755387291</v>
+        <v>239.8777719806492</v>
       </c>
       <c r="L18" t="n">
-        <v>729.9978681296918</v>
+        <v>431.297164571612</v>
       </c>
       <c r="M18" t="n">
-        <v>961.2148022236518</v>
+        <v>662.5140986655721</v>
       </c>
       <c r="N18" t="n">
-        <v>1235.559971964092</v>
+        <v>905.6861581884168</v>
       </c>
       <c r="O18" t="n">
-        <v>1449.015881854029</v>
+        <v>1119.142068078354</v>
       </c>
       <c r="P18" t="n">
-        <v>1612.503176317612</v>
+        <v>1282.629362541937</v>
       </c>
       <c r="Q18" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R18" t="n">
         <v>1801.754437569962</v>
@@ -5627,19 +5627,19 @@
         <v>1560.657138987658</v>
       </c>
       <c r="U18" t="n">
-        <v>1363.382680207123</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V18" t="n">
-        <v>1149.671153200157</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W18" t="n">
-        <v>936.4379849364858</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X18" t="n">
-        <v>760.1120030753787</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y18" t="n">
-        <v>600.7100434392087</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>366.6231058667727</v>
+        <v>839.9047153365766</v>
       </c>
       <c r="C19" t="n">
-        <v>195.5297334284892</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="D19" t="n">
-        <v>36.03508875139924</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="E19" t="n">
-        <v>36.03508875139924</v>
+        <v>507.9005277666126</v>
       </c>
       <c r="F19" t="n">
-        <v>36.03508875139924</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G19" t="n">
-        <v>36.03508875139924</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H19" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I19" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J19" t="n">
-        <v>52.53617997680179</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K19" t="n">
-        <v>111.5999293467746</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L19" t="n">
-        <v>513.2721529075728</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M19" t="n">
-        <v>952.0181985085012</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N19" t="n">
-        <v>1378.784622469625</v>
+        <v>1516.989106293648</v>
       </c>
       <c r="O19" t="n">
-        <v>1458.058269437583</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P19" t="n">
-        <v>1779.067954528026</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q19" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R19" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S19" t="n">
-        <v>1665.403152668971</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T19" t="n">
-        <v>1665.403152668971</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="U19" t="n">
-        <v>1382.658076169928</v>
+        <v>1477.484799847647</v>
       </c>
       <c r="V19" t="n">
-        <v>1108.77233110945</v>
+        <v>1477.484799847647</v>
       </c>
       <c r="W19" t="n">
-        <v>829.7026666183247</v>
+        <v>1198.415135356521</v>
       </c>
       <c r="X19" t="n">
-        <v>591.3588044780081</v>
+        <v>960.0712732162049</v>
       </c>
       <c r="Y19" t="n">
-        <v>366.6231058667727</v>
+        <v>960.0712732162049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>731.2888778472302</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="C20" t="n">
-        <v>731.2888778472302</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="D20" t="n">
-        <v>731.2888778472302</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="E20" t="n">
-        <v>731.2888778472302</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="F20" t="n">
-        <v>731.2888778472302</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="G20" t="n">
         <v>324.7296578907234</v>
       </c>
       <c r="H20" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I20" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J20" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802979</v>
       </c>
       <c r="K20" t="n">
-        <v>326.0552168887697</v>
+        <v>326.05521688877</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019889</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N20" t="n">
-        <v>1135.28612147837</v>
+        <v>1135.286121478371</v>
       </c>
       <c r="O20" t="n">
         <v>1401.21843916599</v>
@@ -5773,31 +5773,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q20" t="n">
-        <v>1754.652407274058</v>
+        <v>1754.652407274059</v>
       </c>
       <c r="R20" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S20" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T20" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963631</v>
       </c>
       <c r="U20" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="V20" t="n">
-        <v>1515.985851763972</v>
+        <v>1135.887510607123</v>
       </c>
       <c r="W20" t="n">
-        <v>1132.22555089914</v>
+        <v>1135.887510607123</v>
       </c>
       <c r="X20" t="n">
-        <v>1132.22555089914</v>
+        <v>1135.887510607123</v>
       </c>
       <c r="Y20" t="n">
-        <v>731.2888778472302</v>
+        <v>734.950837555213</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.8089704397922</v>
+        <v>575.9187410454915</v>
       </c>
       <c r="C21" t="n">
-        <v>485.8138991887379</v>
+        <v>441.9236697944372</v>
       </c>
       <c r="D21" t="n">
-        <v>368.9167414081303</v>
+        <v>325.0265120138296</v>
       </c>
       <c r="E21" t="n">
-        <v>248.4239254004583</v>
+        <v>204.5336960061576</v>
       </c>
       <c r="F21" t="n">
-        <v>201.403377239373</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="G21" t="n">
-        <v>95.57381618866215</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H21" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I21" t="n">
-        <v>54.86182750109193</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J21" t="n">
         <v>111.4709909898562</v>
       </c>
       <c r="K21" t="n">
-        <v>239.8777719806492</v>
+        <v>557.405214288422</v>
       </c>
       <c r="L21" t="n">
-        <v>431.297164571612</v>
+        <v>748.8246068793849</v>
       </c>
       <c r="M21" t="n">
-        <v>662.5140986655721</v>
+        <v>980.0415409733449</v>
       </c>
       <c r="N21" t="n">
-        <v>1091.051375032445</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O21" t="n">
-        <v>1536.985598331011</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P21" t="n">
-        <v>1700.472892794593</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q21" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R21" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S21" t="n">
         <v>1715.3211652896</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.657138987658</v>
+        <v>1560.657138987659</v>
       </c>
       <c r="U21" t="n">
-        <v>1363.382680207123</v>
+        <v>1478.894410448993</v>
       </c>
       <c r="V21" t="n">
-        <v>1149.671153200157</v>
+        <v>1265.182883442027</v>
       </c>
       <c r="W21" t="n">
-        <v>936.437984936486</v>
+        <v>1051.949715178355</v>
       </c>
       <c r="X21" t="n">
-        <v>760.1120030753789</v>
+        <v>875.6237333172481</v>
       </c>
       <c r="Y21" t="n">
-        <v>760.1120030753789</v>
+        <v>716.2217736810782</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>450.7940139277429</v>
+        <v>877.0894253638885</v>
       </c>
       <c r="C22" t="n">
-        <v>279.7006414894594</v>
+        <v>705.996052925605</v>
       </c>
       <c r="D22" t="n">
-        <v>279.7006414894594</v>
+        <v>546.501408248515</v>
       </c>
       <c r="E22" t="n">
-        <v>279.7006414894594</v>
+        <v>385.5905931168344</v>
       </c>
       <c r="F22" t="n">
-        <v>279.7006414894594</v>
+        <v>220.9594672274257</v>
       </c>
       <c r="G22" t="n">
-        <v>113.4232179202891</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H22" t="n">
-        <v>113.4232179202891</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I22" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J22" t="n">
-        <v>52.5361799768018</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K22" t="n">
-        <v>111.5999293467747</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L22" t="n">
-        <v>201.7783540455741</v>
+        <v>735.5455027727634</v>
       </c>
       <c r="M22" t="n">
-        <v>640.5243996465026</v>
+        <v>829.3251988594063</v>
       </c>
       <c r="N22" t="n">
-        <v>1067.290823607627</v>
+        <v>1256.091622820531</v>
       </c>
       <c r="O22" t="n">
-        <v>1461.639229994325</v>
+        <v>1335.365269788489</v>
       </c>
       <c r="P22" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q22" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="R22" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S22" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="T22" t="n">
-        <v>1524.838362118705</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="U22" t="n">
-        <v>1242.093285619663</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="V22" t="n">
-        <v>968.2075405591852</v>
+        <v>1527.868692509485</v>
       </c>
       <c r="W22" t="n">
-        <v>689.1378760680595</v>
+        <v>1527.868692509485</v>
       </c>
       <c r="X22" t="n">
-        <v>450.7940139277429</v>
+        <v>1289.524830369168</v>
       </c>
       <c r="Y22" t="n">
-        <v>450.7940139277429</v>
+        <v>1064.789131757933</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1058.370547257768</v>
+        <v>1281.530306967545</v>
       </c>
       <c r="C23" t="n">
-        <v>648.2459565710384</v>
+        <v>871.405716280815</v>
       </c>
       <c r="D23" t="n">
-        <v>324.7296578907234</v>
+        <v>871.405716280815</v>
       </c>
       <c r="E23" t="n">
-        <v>324.7296578907234</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F23" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G23" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H23" t="n">
         <v>36.03508875139925</v>
@@ -5989,10 +5989,10 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J23" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K23" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L23" t="n">
         <v>567.0076014019885</v>
@@ -6016,25 +6016,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U23" t="n">
-        <v>1459.013945088816</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V23" t="n">
-        <v>1459.013945088816</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="W23" t="n">
-        <v>1459.013945088816</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="X23" t="n">
-        <v>1058.370547257768</v>
+        <v>1682.466980019455</v>
       </c>
       <c r="Y23" t="n">
-        <v>1058.370547257768</v>
+        <v>1281.530306967545</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>681.7483020962025</v>
+        <v>622.2095746589395</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7532308451481</v>
+        <v>488.2145034078852</v>
       </c>
       <c r="D24" t="n">
-        <v>430.8560730645405</v>
+        <v>371.3173456272776</v>
       </c>
       <c r="E24" t="n">
-        <v>310.3632570568685</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F24" t="n">
-        <v>201.4033772393731</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G24" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H24" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I24" t="n">
-        <v>54.86182750109194</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J24" t="n">
-        <v>172.4499501741702</v>
+        <v>336.3126562147968</v>
       </c>
       <c r="K24" t="n">
-        <v>300.8567311649632</v>
+        <v>464.7194372055898</v>
       </c>
       <c r="L24" t="n">
-        <v>492.2761237559261</v>
+        <v>656.1388297965526</v>
       </c>
       <c r="M24" t="n">
-        <v>723.4930578498861</v>
+        <v>887.3557638905127</v>
       </c>
       <c r="N24" t="n">
-        <v>966.6651173727308</v>
+        <v>1130.527823413358</v>
       </c>
       <c r="O24" t="n">
-        <v>1180.121027262669</v>
+        <v>1343.983733303295</v>
       </c>
       <c r="P24" t="n">
-        <v>1343.608321726251</v>
+        <v>1507.471027766878</v>
       </c>
       <c r="Q24" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R24" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S24" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T24" t="n">
-        <v>1647.090411268021</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="U24" t="n">
-        <v>1449.815952487486</v>
+        <v>1518.046706509065</v>
       </c>
       <c r="V24" t="n">
-        <v>1371.012444492737</v>
+        <v>1304.335179502099</v>
       </c>
       <c r="W24" t="n">
-        <v>1157.779276229066</v>
+        <v>1091.102011238428</v>
       </c>
       <c r="X24" t="n">
-        <v>981.4532943679591</v>
+        <v>921.9145669306961</v>
       </c>
       <c r="Y24" t="n">
-        <v>822.0513347317891</v>
+        <v>762.5126072945261</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>613.5245423510416</v>
+        <v>840.296503731767</v>
       </c>
       <c r="C25" t="n">
-        <v>613.5245423510416</v>
+        <v>840.296503731767</v>
       </c>
       <c r="D25" t="n">
-        <v>454.0298976739516</v>
+        <v>680.8018590546769</v>
       </c>
       <c r="E25" t="n">
-        <v>454.0298976739516</v>
+        <v>519.8910439229965</v>
       </c>
       <c r="F25" t="n">
-        <v>289.3987717845429</v>
+        <v>355.2599180335877</v>
       </c>
       <c r="G25" t="n">
-        <v>123.1213482153726</v>
+        <v>188.9824944644174</v>
       </c>
       <c r="H25" t="n">
-        <v>123.1213482153726</v>
+        <v>48.02560490778313</v>
       </c>
       <c r="I25" t="n">
         <v>36.03508875139925</v>
@@ -6150,22 +6150,22 @@
         <v>52.53617997680181</v>
       </c>
       <c r="K25" t="n">
-        <v>317.8801229324888</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5386952873228</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M25" t="n">
-        <v>846.2847408882512</v>
+        <v>952.0181985085013</v>
       </c>
       <c r="N25" t="n">
-        <v>941.0168634017899</v>
+        <v>1046.75032102204</v>
       </c>
       <c r="O25" t="n">
-        <v>1335.365269788488</v>
+        <v>1441.098727408738</v>
       </c>
       <c r="P25" t="n">
-        <v>1656.374954878931</v>
+        <v>1762.108412499181</v>
       </c>
       <c r="Q25" t="n">
         <v>1801.754437569962</v>
@@ -6183,16 +6183,16 @@
         <v>1114.182248792245</v>
       </c>
       <c r="V25" t="n">
-        <v>851.8684044913582</v>
+        <v>840.296503731767</v>
       </c>
       <c r="W25" t="n">
-        <v>851.8684044913582</v>
+        <v>840.296503731767</v>
       </c>
       <c r="X25" t="n">
-        <v>613.5245423510416</v>
+        <v>840.296503731767</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.5245423510416</v>
+        <v>840.296503731767</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.2126945413689</v>
+        <v>1276.478228455514</v>
       </c>
       <c r="C26" t="n">
-        <v>247.2126945413689</v>
+        <v>866.353637768784</v>
       </c>
       <c r="D26" t="n">
-        <v>247.2126945413689</v>
+        <v>866.353637768784</v>
       </c>
       <c r="E26" t="n">
-        <v>247.2126945413689</v>
+        <v>866.353637768784</v>
       </c>
       <c r="F26" t="n">
-        <v>247.2126945413689</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G26" t="n">
         <v>38.76400576596473</v>
@@ -6229,13 +6229,13 @@
         <v>143.8778192802977</v>
       </c>
       <c r="K26" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L26" t="n">
         <v>567.0076014019885</v>
       </c>
       <c r="M26" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N26" t="n">
         <v>1135.28612147837</v>
@@ -6253,25 +6253,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.900911697253</v>
+        <v>1686.699408120003</v>
       </c>
       <c r="U26" t="n">
-        <v>1459.013945088816</v>
+        <v>1686.699408120003</v>
       </c>
       <c r="V26" t="n">
-        <v>1459.013945088816</v>
+        <v>1686.699408120003</v>
       </c>
       <c r="W26" t="n">
-        <v>1459.013945088816</v>
+        <v>1686.699408120003</v>
       </c>
       <c r="X26" t="n">
-        <v>1058.370547257768</v>
+        <v>1686.699408120003</v>
       </c>
       <c r="Y26" t="n">
-        <v>657.4338742058584</v>
+        <v>1686.699408120003</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>636.7329926647296</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C27" t="n">
-        <v>502.7379214136753</v>
+        <v>438.7933510276526</v>
       </c>
       <c r="D27" t="n">
-        <v>385.8407636330678</v>
+        <v>321.8961932470451</v>
       </c>
       <c r="E27" t="n">
-        <v>265.3479476253957</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="F27" t="n">
         <v>201.4033772393731</v>
@@ -6302,28 +6302,28 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I27" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J27" t="n">
-        <v>336.3126562147968</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K27" t="n">
-        <v>464.7194372055898</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L27" t="n">
-        <v>761.1709783472875</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M27" t="n">
-        <v>992.3879124412475</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.01588185403</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P27" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q27" t="n">
         <v>1701.572828547836</v>
@@ -6347,10 +6347,10 @@
         <v>936.4379849364863</v>
       </c>
       <c r="X27" t="n">
-        <v>936.4379849364863</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y27" t="n">
-        <v>777.0360253003163</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.314525099756</v>
+        <v>467.0783936545653</v>
       </c>
       <c r="C28" t="n">
-        <v>104.314525099756</v>
+        <v>467.0783936545653</v>
       </c>
       <c r="D28" t="n">
-        <v>36.03508875139925</v>
+        <v>307.5837489774753</v>
       </c>
       <c r="E28" t="n">
-        <v>36.03508875139925</v>
+        <v>307.5837489774753</v>
       </c>
       <c r="F28" t="n">
-        <v>36.03508875139925</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G28" t="n">
         <v>36.03508875139925</v>
@@ -6384,19 +6384,19 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J28" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K28" t="n">
-        <v>111.5999293467747</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L28" t="n">
-        <v>390.5791532584776</v>
+        <v>264.2944053038862</v>
       </c>
       <c r="M28" t="n">
-        <v>829.3251988594061</v>
+        <v>703.0404509048146</v>
       </c>
       <c r="N28" t="n">
-        <v>1256.09162282053</v>
+        <v>1129.806874865939</v>
       </c>
       <c r="O28" t="n">
         <v>1335.365269788488</v>
@@ -6408,28 +6408,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R28" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S28" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T28" t="n">
-        <v>1590.794278295998</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U28" t="n">
-        <v>1308.049201796956</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="V28" t="n">
-        <v>1034.163456736478</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="W28" t="n">
-        <v>755.0937922453522</v>
+        <v>1117.857660800162</v>
       </c>
       <c r="X28" t="n">
-        <v>516.7499301050357</v>
+        <v>879.513798659845</v>
       </c>
       <c r="Y28" t="n">
-        <v>292.0142314938004</v>
+        <v>654.7781000486096</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>112.0612859957952</v>
+        <v>1273.749311440949</v>
       </c>
       <c r="C29" t="n">
-        <v>36.03508875139925</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="D29" t="n">
-        <v>36.03508875139925</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="E29" t="n">
-        <v>36.03508875139925</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="F29" t="n">
-        <v>36.03508875139925</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G29" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H29" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I29" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J29" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L29" t="n">
         <v>567.0076014019883</v>
@@ -6490,25 +6490,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.900911697253</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T29" t="n">
-        <v>1503.18950596363</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U29" t="n">
-        <v>1246.302539355193</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V29" t="n">
-        <v>896.4649846916741</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="W29" t="n">
-        <v>512.7046838268427</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="X29" t="n">
-        <v>112.0612859957952</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.0612859957952</v>
+        <v>1314.964238645342</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>460.4070108036225</v>
+        <v>501.7167586512674</v>
       </c>
       <c r="C30" t="n">
-        <v>441.9236697944372</v>
+        <v>367.7216874002131</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0265120138296</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="E30" t="n">
-        <v>204.5336960061576</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F30" t="n">
-        <v>95.57381618866216</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G30" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H30" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I30" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J30" t="n">
-        <v>336.3126562147968</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K30" t="n">
-        <v>657.7213022333059</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L30" t="n">
-        <v>849.1406948242687</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M30" t="n">
-        <v>1080.357628918229</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N30" t="n">
-        <v>1323.529688441073</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P30" t="n">
-        <v>1700.472892794594</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R30" t="n">
         <v>1801.754437569962</v>
@@ -6575,19 +6575,19 @@
         <v>1560.657138987658</v>
       </c>
       <c r="U30" t="n">
-        <v>1363.382680207124</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V30" t="n">
-        <v>1149.671153200158</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W30" t="n">
-        <v>936.4379849364863</v>
+        <v>936.4379849364858</v>
       </c>
       <c r="X30" t="n">
-        <v>760.1120030753791</v>
+        <v>801.4217509230241</v>
       </c>
       <c r="Y30" t="n">
-        <v>600.7100434392091</v>
+        <v>642.0197912868541</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.0939852907637</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="C31" t="n">
-        <v>512.0939852907637</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="D31" t="n">
-        <v>512.0939852907637</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="E31" t="n">
-        <v>512.0939852907637</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="F31" t="n">
-        <v>347.462859401355</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G31" t="n">
-        <v>181.1854358321847</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H31" t="n">
-        <v>40.2285462755504</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I31" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J31" t="n">
-        <v>117.5375436081382</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K31" t="n">
-        <v>382.8814865638252</v>
+        <v>248.7087649870797</v>
       </c>
       <c r="L31" t="n">
-        <v>784.5537101246234</v>
+        <v>336.4018773128548</v>
       </c>
       <c r="M31" t="n">
-        <v>878.3334062112664</v>
+        <v>775.1479229137833</v>
       </c>
       <c r="N31" t="n">
-        <v>1067.290823607627</v>
+        <v>1201.914346874908</v>
       </c>
       <c r="O31" t="n">
-        <v>1461.639229994325</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P31" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q31" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R31" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S31" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T31" t="n">
-        <v>1760.229876346689</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U31" t="n">
-        <v>1477.484799847647</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V31" t="n">
-        <v>1203.599054787169</v>
+        <v>1058.448707706384</v>
       </c>
       <c r="W31" t="n">
-        <v>924.5293902960434</v>
+        <v>779.379043215258</v>
       </c>
       <c r="X31" t="n">
-        <v>924.5293902960434</v>
+        <v>779.379043215258</v>
       </c>
       <c r="Y31" t="n">
-        <v>699.7936916848081</v>
+        <v>554.6433446040227</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1391.533257905473</v>
+        <v>871.405716280815</v>
       </c>
       <c r="C32" t="n">
-        <v>1150.223999843975</v>
+        <v>871.405716280815</v>
       </c>
       <c r="D32" t="n">
-        <v>745.760069937036</v>
+        <v>871.405716280815</v>
       </c>
       <c r="E32" t="n">
-        <v>745.760069937036</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F32" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G32" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H32" t="n">
         <v>36.03508875139925</v>
@@ -6700,13 +6700,13 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J32" t="n">
-        <v>143.8778192802975</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K32" t="n">
-        <v>326.0552168887695</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L32" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M32" t="n">
         <v>847.9396778919402</v>
@@ -6736,16 +6736,16 @@
         <v>1801.754437569962</v>
       </c>
       <c r="V32" t="n">
-        <v>1801.754437569962</v>
+        <v>1656.102690197556</v>
       </c>
       <c r="W32" t="n">
-        <v>1801.754437569962</v>
+        <v>1272.342389332725</v>
       </c>
       <c r="X32" t="n">
-        <v>1801.754437569962</v>
+        <v>1272.342389332725</v>
       </c>
       <c r="Y32" t="n">
-        <v>1801.754437569962</v>
+        <v>871.405716280815</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>460.4070108036225</v>
+        <v>636.7329926647296</v>
       </c>
       <c r="C33" t="n">
-        <v>460.4070108036225</v>
+        <v>502.7379214136753</v>
       </c>
       <c r="D33" t="n">
-        <v>430.8560730645405</v>
+        <v>385.8407636330678</v>
       </c>
       <c r="E33" t="n">
         <v>310.3632570568685</v>
@@ -6776,31 +6776,31 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I33" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J33" t="n">
-        <v>336.3126562147968</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K33" t="n">
-        <v>464.7194372055898</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L33" t="n">
-        <v>656.1388297965526</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M33" t="n">
-        <v>887.3557638905127</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N33" t="n">
-        <v>1130.527823413358</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O33" t="n">
-        <v>1343.983733303295</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P33" t="n">
-        <v>1700.472892794594</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q33" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R33" t="n">
         <v>1801.754437569962</v>
@@ -6821,10 +6821,10 @@
         <v>936.4379849364863</v>
       </c>
       <c r="X33" t="n">
-        <v>760.1120030753791</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.7100434392091</v>
+        <v>777.0360253003163</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.1213482153726</v>
+        <v>377.2169429802151</v>
       </c>
       <c r="C34" t="n">
-        <v>123.1213482153726</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="D34" t="n">
-        <v>123.1213482153726</v>
+        <v>361.5770297724885</v>
       </c>
       <c r="E34" t="n">
-        <v>123.1213482153726</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F34" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G34" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H34" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I34" t="n">
         <v>36.03508875139925</v>
@@ -6861,22 +6861,22 @@
         <v>52.53617997680181</v>
       </c>
       <c r="K34" t="n">
-        <v>317.8801229324888</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L34" t="n">
-        <v>405.5732352582639</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M34" t="n">
-        <v>844.3192808591923</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N34" t="n">
-        <v>1271.085704820317</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O34" t="n">
-        <v>1350.359351788275</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P34" t="n">
-        <v>1671.369036878717</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q34" t="n">
         <v>1801.754437569962</v>
@@ -6897,13 +6897,13 @@
         <v>840.296503731767</v>
       </c>
       <c r="W34" t="n">
-        <v>773.9006153609689</v>
+        <v>840.296503731767</v>
       </c>
       <c r="X34" t="n">
-        <v>535.5567532206524</v>
+        <v>601.9526415914504</v>
       </c>
       <c r="Y34" t="n">
-        <v>310.821054609417</v>
+        <v>377.2169429802151</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9345241910094</v>
+        <v>377.2417812888933</v>
       </c>
       <c r="C35" t="n">
-        <v>856.9345241910094</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="D35" t="n">
-        <v>856.9345241910094</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="E35" t="n">
-        <v>442.594308707906</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="F35" t="n">
-        <v>442.594308707906</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="G35" t="n">
-        <v>36.03508875139925</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="H35" t="n">
         <v>36.03508875139925</v>
@@ -6937,16 +6937,16 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J35" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K35" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L35" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M35" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N35" t="n">
         <v>1135.28612147837</v>
@@ -6964,25 +6964,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.900911697253</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.900911697253</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V35" t="n">
-        <v>1366.063357033733</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="W35" t="n">
-        <v>1366.063357033733</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="X35" t="n">
-        <v>1257.871197242919</v>
+        <v>1188.399634005293</v>
       </c>
       <c r="Y35" t="n">
-        <v>856.9345241910094</v>
+        <v>787.4629609533828</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>460.4070108036225</v>
+        <v>572.788422278707</v>
       </c>
       <c r="C36" t="n">
-        <v>460.4070108036225</v>
+        <v>438.7933510276526</v>
       </c>
       <c r="D36" t="n">
-        <v>343.5098530230149</v>
+        <v>321.8961932470451</v>
       </c>
       <c r="E36" t="n">
-        <v>223.0170370153429</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="F36" t="n">
-        <v>114.0571571978475</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G36" t="n">
-        <v>36.03508875139925</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H36" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I36" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J36" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L36" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M36" t="n">
-        <v>643.6873599158794</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N36" t="n">
-        <v>886.8594194387241</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O36" t="n">
-        <v>1100.315329328662</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P36" t="n">
-        <v>1263.802623792245</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q36" t="n">
         <v>1701.572828547836</v>
@@ -7043,25 +7043,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T36" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U36" t="n">
-        <v>1363.382680207124</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V36" t="n">
-        <v>1149.671153200158</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W36" t="n">
-        <v>936.4379849364863</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X36" t="n">
-        <v>760.1120030753791</v>
+        <v>872.4934145504636</v>
       </c>
       <c r="Y36" t="n">
-        <v>600.7100434392091</v>
+        <v>713.0914549142936</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>605.888316683802</v>
+        <v>558.2744913283086</v>
       </c>
       <c r="C37" t="n">
-        <v>605.888316683802</v>
+        <v>387.1811188900251</v>
       </c>
       <c r="D37" t="n">
-        <v>446.3936720067121</v>
+        <v>227.6864742129351</v>
       </c>
       <c r="E37" t="n">
-        <v>285.4828568750315</v>
+        <v>200.666214640808</v>
       </c>
       <c r="F37" t="n">
-        <v>285.4828568750315</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G37" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H37" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I37" t="n">
         <v>36.03508875139925</v>
@@ -7104,43 +7104,43 @@
         <v>784.5537101246234</v>
       </c>
       <c r="M37" t="n">
-        <v>1223.299755725552</v>
+        <v>878.3334062112664</v>
       </c>
       <c r="N37" t="n">
-        <v>1328.188307080745</v>
+        <v>973.0655287248051</v>
       </c>
       <c r="O37" t="n">
-        <v>1722.536713467443</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P37" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q37" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S37" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T37" t="n">
-        <v>1355.402764068014</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U37" t="n">
-        <v>1072.657687568972</v>
+        <v>1349.573763020229</v>
       </c>
       <c r="V37" t="n">
-        <v>1072.657687568972</v>
+        <v>1075.688017959751</v>
       </c>
       <c r="W37" t="n">
-        <v>793.5880230778464</v>
+        <v>796.6183534686252</v>
       </c>
       <c r="X37" t="n">
-        <v>793.5880230778464</v>
+        <v>558.2744913283086</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.5880230778464</v>
+        <v>558.2744913283086</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1451.916882906443</v>
+        <v>731.2888778472302</v>
       </c>
       <c r="C38" t="n">
-        <v>1277.964936237322</v>
+        <v>731.2888778472302</v>
       </c>
       <c r="D38" t="n">
-        <v>1277.964936237322</v>
+        <v>731.2888778472302</v>
       </c>
       <c r="E38" t="n">
-        <v>863.6247207542185</v>
+        <v>731.2888778472302</v>
       </c>
       <c r="F38" t="n">
-        <v>442.594308707906</v>
+        <v>731.2888778472302</v>
       </c>
       <c r="G38" t="n">
-        <v>36.03508875139925</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="H38" t="n">
         <v>36.03508875139925</v>
@@ -7174,16 +7174,16 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J38" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K38" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L38" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M38" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N38" t="n">
         <v>1135.28612147837</v>
@@ -7213,13 +7213,13 @@
         <v>1451.916882906443</v>
       </c>
       <c r="W38" t="n">
-        <v>1451.916882906443</v>
+        <v>1068.156582041612</v>
       </c>
       <c r="X38" t="n">
-        <v>1451.916882906443</v>
+        <v>731.2888778472302</v>
       </c>
       <c r="Y38" t="n">
-        <v>1451.916882906443</v>
+        <v>731.2888778472302</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>681.7483020962025</v>
+        <v>501.7167586512674</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7532308451481</v>
+        <v>367.7216874002131</v>
       </c>
       <c r="D39" t="n">
-        <v>430.8560730645405</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="E39" t="n">
-        <v>310.3632570568685</v>
+        <v>250.8245296196056</v>
       </c>
       <c r="F39" t="n">
-        <v>201.4033772393731</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G39" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H39" t="n">
         <v>36.03508875139925</v>
@@ -7253,28 +7253,28 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J39" t="n">
-        <v>355.1393949644895</v>
+        <v>111.4709909898562</v>
       </c>
       <c r="K39" t="n">
-        <v>483.5461759552825</v>
+        <v>239.8777719806492</v>
       </c>
       <c r="L39" t="n">
-        <v>674.9655685462453</v>
+        <v>431.297164571612</v>
       </c>
       <c r="M39" t="n">
-        <v>992.3879124412475</v>
+        <v>662.5140986655721</v>
       </c>
       <c r="N39" t="n">
-        <v>1235.559971964092</v>
+        <v>905.6861581884168</v>
       </c>
       <c r="O39" t="n">
-        <v>1449.01588185403</v>
+        <v>1119.142068078354</v>
       </c>
       <c r="P39" t="n">
-        <v>1612.503176317613</v>
+        <v>1282.629362541937</v>
       </c>
       <c r="Q39" t="n">
-        <v>1701.572828547836</v>
+        <v>1728.563585840503</v>
       </c>
       <c r="R39" t="n">
         <v>1801.754437569962</v>
@@ -7283,22 +7283,22 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T39" t="n">
-        <v>1568.765262016567</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U39" t="n">
-        <v>1371.490803236032</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V39" t="n">
-        <v>1157.779276229066</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W39" t="n">
-        <v>1157.779276229066</v>
+        <v>977.7477327841314</v>
       </c>
       <c r="X39" t="n">
-        <v>981.4532943679591</v>
+        <v>801.4217509230241</v>
       </c>
       <c r="Y39" t="n">
-        <v>822.0513347317891</v>
+        <v>642.0197912868541</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.771942508494</v>
+        <v>886.494202268677</v>
       </c>
       <c r="C40" t="n">
-        <v>798.771942508494</v>
+        <v>828.3059875753831</v>
       </c>
       <c r="D40" t="n">
-        <v>639.277297831404</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="E40" t="n">
-        <v>478.3664826997235</v>
+        <v>507.9005277666126</v>
       </c>
       <c r="F40" t="n">
-        <v>313.7353568103147</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G40" t="n">
-        <v>147.4579332411444</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H40" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I40" t="n">
         <v>36.03508875139925</v>
@@ -7335,19 +7335,19 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K40" t="n">
-        <v>382.8814865638252</v>
+        <v>249.8044131707974</v>
       </c>
       <c r="L40" t="n">
-        <v>470.5745988896003</v>
+        <v>651.4766367315956</v>
       </c>
       <c r="M40" t="n">
-        <v>846.2847408882512</v>
+        <v>1090.222682332524</v>
       </c>
       <c r="N40" t="n">
-        <v>941.0168634017899</v>
+        <v>1516.989106293648</v>
       </c>
       <c r="O40" t="n">
-        <v>1335.365269788488</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P40" t="n">
         <v>1656.374954878931</v>
@@ -7356,28 +7356,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R40" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S40" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T40" t="n">
-        <v>1355.402764068014</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U40" t="n">
-        <v>1072.657687568972</v>
+        <v>1349.573763020229</v>
       </c>
       <c r="V40" t="n">
-        <v>798.771942508494</v>
+        <v>1349.573763020229</v>
       </c>
       <c r="W40" t="n">
-        <v>798.771942508494</v>
+        <v>1349.573763020229</v>
       </c>
       <c r="X40" t="n">
-        <v>798.771942508494</v>
+        <v>1111.229900879912</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.771942508494</v>
+        <v>886.494202268677</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867.1900914844416</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="C41" t="n">
-        <v>457.0655007977117</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="D41" t="n">
-        <v>457.0655007977117</v>
+        <v>834.7415472658813</v>
       </c>
       <c r="E41" t="n">
         <v>457.0655007977117</v>
       </c>
       <c r="F41" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G41" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H41" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I41" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J41" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K41" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L41" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M41" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N41" t="n">
         <v>1135.28612147837</v>
@@ -7429,7 +7429,7 @@
         <v>1401.21843916599</v>
       </c>
       <c r="P41" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q41" t="n">
         <v>1754.652407274058</v>
@@ -7438,25 +7438,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T41" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U41" t="n">
-        <v>1277.411271148931</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V41" t="n">
-        <v>1277.411271148931</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="W41" t="n">
-        <v>1277.411271148931</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="X41" t="n">
-        <v>1277.411271148931</v>
+        <v>1239.205477172821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1277.411271148931</v>
+        <v>1239.205477172821</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>615.0710371055637</v>
+        <v>546.8402830839849</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7532308451481</v>
+        <v>412.8452118329306</v>
       </c>
       <c r="D42" t="n">
-        <v>430.8560730645405</v>
+        <v>295.948054052323</v>
       </c>
       <c r="E42" t="n">
-        <v>310.3632570568685</v>
+        <v>175.455238044651</v>
       </c>
       <c r="F42" t="n">
-        <v>201.403377239373</v>
+        <v>66.49535822715558</v>
       </c>
       <c r="G42" t="n">
-        <v>95.57381618866215</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H42" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I42" t="n">
-        <v>54.86182750109193</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J42" t="n">
-        <v>226.6275155609256</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K42" t="n">
-        <v>355.0342965517186</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L42" t="n">
-        <v>546.4536891426815</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M42" t="n">
-        <v>992.3879124412471</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N42" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O42" t="n">
-        <v>1449.015881854029</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P42" t="n">
-        <v>1612.503176317612</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q42" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T42" t="n">
-        <v>1715.3211652896</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U42" t="n">
-        <v>1518.046706509065</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V42" t="n">
-        <v>1304.335179502099</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W42" t="n">
-        <v>1091.102011238428</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X42" t="n">
-        <v>914.7760293773204</v>
+        <v>846.5452753557415</v>
       </c>
       <c r="Y42" t="n">
-        <v>755.3740697411504</v>
+        <v>687.1433157195715</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>460.4921442228264</v>
+        <v>850.1391623503498</v>
       </c>
       <c r="C43" t="n">
-        <v>289.3987717845429</v>
+        <v>679.0457899120663</v>
       </c>
       <c r="D43" t="n">
-        <v>289.3987717845429</v>
+        <v>679.0457899120663</v>
       </c>
       <c r="E43" t="n">
-        <v>289.3987717845429</v>
+        <v>518.1349747803858</v>
       </c>
       <c r="F43" t="n">
-        <v>289.3987717845429</v>
+        <v>353.5038488909771</v>
       </c>
       <c r="G43" t="n">
-        <v>123.1213482153726</v>
+        <v>187.2264253218068</v>
       </c>
       <c r="H43" t="n">
-        <v>123.1213482153726</v>
+        <v>46.26953576517252</v>
       </c>
       <c r="I43" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J43" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K43" t="n">
-        <v>382.8814865638252</v>
+        <v>279.6960032663426</v>
       </c>
       <c r="L43" t="n">
-        <v>777.7505969374322</v>
+        <v>681.3682268271408</v>
       </c>
       <c r="M43" t="n">
-        <v>1216.496642538361</v>
+        <v>775.1479229137838</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.263066499485</v>
+        <v>1201.914346874908</v>
       </c>
       <c r="O43" t="n">
-        <v>1722.536713467443</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P43" t="n">
-        <v>1782.648915084767</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q43" t="n">
         <v>1801.754437569962</v>
@@ -7596,25 +7596,25 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S43" t="n">
-        <v>1590.794278295997</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="T43" t="n">
-        <v>1355.402764068014</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="U43" t="n">
-        <v>1072.657687568972</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="V43" t="n">
-        <v>798.7719425084936</v>
+        <v>1316.90853323552</v>
       </c>
       <c r="W43" t="n">
-        <v>698.836006363143</v>
+        <v>1037.838868744394</v>
       </c>
       <c r="X43" t="n">
-        <v>460.4921442228264</v>
+        <v>1037.838868744394</v>
       </c>
       <c r="Y43" t="n">
-        <v>460.4921442228264</v>
+        <v>1037.838868744394</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1267.059114877739</v>
+        <v>734.0028934659881</v>
       </c>
       <c r="C44" t="n">
-        <v>856.9345241910094</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="D44" t="n">
-        <v>856.9345241910094</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="E44" t="n">
-        <v>442.594308707906</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F44" t="n">
-        <v>442.594308707906</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G44" t="n">
         <v>36.03508875139924</v>
@@ -7657,13 +7657,13 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M44" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N44" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O44" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P44" t="n">
         <v>1614.21261440288</v>
@@ -7675,25 +7675,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U44" t="n">
-        <v>1459.013945088815</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="V44" t="n">
-        <v>1267.059114877739</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="W44" t="n">
-        <v>1267.059114877739</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="X44" t="n">
-        <v>1267.059114877739</v>
+        <v>1144.224073130478</v>
       </c>
       <c r="Y44" t="n">
-        <v>1267.059114877739</v>
+        <v>1144.224073130478</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>673.6401790672932</v>
+        <v>615.0710371055637</v>
       </c>
       <c r="C45" t="n">
-        <v>539.6451078162388</v>
+        <v>481.0759658545094</v>
       </c>
       <c r="D45" t="n">
-        <v>422.7479500356312</v>
+        <v>364.1788080739018</v>
       </c>
       <c r="E45" t="n">
-        <v>302.2551340279592</v>
+        <v>243.6859920662298</v>
       </c>
       <c r="F45" t="n">
-        <v>201.403377239373</v>
+        <v>134.7261122487344</v>
       </c>
       <c r="G45" t="n">
         <v>95.57381618866215</v>
@@ -7730,25 +7730,25 @@
         <v>355.1393949644894</v>
       </c>
       <c r="K45" t="n">
-        <v>657.7213022333054</v>
+        <v>569.7515857563242</v>
       </c>
       <c r="L45" t="n">
-        <v>849.1406948242683</v>
+        <v>761.170978347287</v>
       </c>
       <c r="M45" t="n">
-        <v>1080.357628918228</v>
+        <v>992.3879124412471</v>
       </c>
       <c r="N45" t="n">
-        <v>1323.529688441073</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O45" t="n">
-        <v>1536.985598331011</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P45" t="n">
-        <v>1700.472892794593</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
@@ -7757,22 +7757,22 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T45" t="n">
-        <v>1560.657138987658</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.382680207123</v>
+        <v>1518.046706509065</v>
       </c>
       <c r="V45" t="n">
-        <v>1149.671153200157</v>
+        <v>1304.335179502099</v>
       </c>
       <c r="W45" t="n">
-        <v>1149.671153200157</v>
+        <v>1091.102011238428</v>
       </c>
       <c r="X45" t="n">
-        <v>973.3451713390498</v>
+        <v>914.7760293773204</v>
       </c>
       <c r="Y45" t="n">
-        <v>813.9432117028798</v>
+        <v>755.3740697411504</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.5390904267847</v>
+        <v>776.8601358282425</v>
       </c>
       <c r="C46" t="n">
-        <v>562.4457179885012</v>
+        <v>755.8976023622665</v>
       </c>
       <c r="D46" t="n">
-        <v>402.9510733114112</v>
+        <v>755.8976023622665</v>
       </c>
       <c r="E46" t="n">
-        <v>242.0402581797307</v>
+        <v>594.9867872305859</v>
       </c>
       <c r="F46" t="n">
-        <v>77.40913229032196</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="G46" t="n">
-        <v>77.40913229032196</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H46" t="n">
-        <v>77.40913229032196</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I46" t="n">
         <v>36.03508875139924</v>
@@ -7809,19 +7809,19 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K46" t="n">
-        <v>382.8814865638252</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L46" t="n">
-        <v>470.5745988896003</v>
+        <v>264.2944053038862</v>
       </c>
       <c r="M46" t="n">
-        <v>909.3206444905288</v>
+        <v>703.0404509048146</v>
       </c>
       <c r="N46" t="n">
-        <v>1004.052767004068</v>
+        <v>1129.806874865939</v>
       </c>
       <c r="O46" t="n">
-        <v>1335.365269788488</v>
+        <v>1524.155281252637</v>
       </c>
       <c r="P46" t="n">
         <v>1656.37495487893</v>
@@ -7830,28 +7830,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R46" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S46" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T46" t="n">
-        <v>1524.838362118705</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U46" t="n">
-        <v>1524.838362118705</v>
+        <v>1519.00936107092</v>
       </c>
       <c r="V46" t="n">
-        <v>1250.952617058227</v>
+        <v>1519.00936107092</v>
       </c>
       <c r="W46" t="n">
-        <v>971.8829525671013</v>
+        <v>1239.939696579794</v>
       </c>
       <c r="X46" t="n">
-        <v>733.5390904267847</v>
+        <v>1001.595834439478</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.5390904267847</v>
+        <v>776.8601358282425</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7485506060653719</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>257.0856875834371</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>95.13709274521719</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>360.4692637053964</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>80.61181609495662</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>348.4508580952379</v>
@@ -8862,13 +8862,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.78611155974254</v>
+        <v>2.510416538408837</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7485506060653719</v>
+        <v>0.7485506060653577</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>66.92285221250987</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>285.2999281161443</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>352.2227803286543</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9093,7 +9093,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>78.04621500401691</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>214.0295718396538</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7485506060653719</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>320.7347902098713</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>31.48799011878322</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>333.2058725006822</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
@@ -9333,16 +9333,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>200.9668970248057</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.617131875496515</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>320.7347902098714</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>187.2375927717457</v>
+        <v>12.47108229081095</v>
       </c>
       <c r="O21" t="n">
-        <v>234.8265792006343</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>2.510416538408435</v>
+        <v>267.6473776597607</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J24" t="n">
-        <v>61.59490826698387</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.4692637053964</v>
+        <v>106.0930793441765</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.985313160665527</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9816,7 +9816,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>20.74798240968395</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>106.0930793441766</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>193.2182945312402</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10047,7 +10047,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>127.5603514692844</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>194.9513788158748</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>138.4937733740455</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>95.17706553820379</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>194.9513788158747</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>266.0432281274165</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10521,13 +10521,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>112.4039173798494</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>352.2227803286546</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10752,19 +10752,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>10.25901903197395</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>285.8849435310357</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>87.07617151620423</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>360.4692637053964</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>61.59490826698406</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>73.94254564917816</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>284.7782281939475</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>116.319721788959</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>216.8861507117228</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,25 +11220,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>104.1360709982137</v>
       </c>
       <c r="L43" t="n">
-        <v>310.2787859069009</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>175.934470987902</v>
+        <v>87.07617151620377</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11466,13 +11466,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>254.5847028449116</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>72.8358303120894</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I11" t="n">
-        <v>2.701627844419832</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>321.6613710494395</v>
+        <v>369.1993160152497</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>44.56515633715858</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>133.558938822095</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>131.2664560969885</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>164.6146493334786</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9176257340516</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.3102533422074</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>261.7903821447397</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>270.9348183943858</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I14" t="n">
-        <v>2.701627844419832</v>
+        <v>2.701627844419789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.99499061398264</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T14" t="n">
         <v>210.5842916762861</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>111.2575973603345</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>160.1845382167637</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>16.00783904347963</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>20.74103789999398</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>382.7675741009736</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23752,7 +23752,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.99499061398264</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V17" t="n">
-        <v>239.3680082798764</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23813,16 +23813,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>86.47275784111076</v>
+        <v>111.2575973603336</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>66.85781702927197</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>86.2153968693336</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.10931561104034</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>32.7534700182029</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T19" t="n">
         <v>233.0375990857039</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23983,7 +23983,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>63.42827916895345</v>
+        <v>237.0283006562939</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24059,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>61.31993833984603</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>114.3566129394502</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>121.0868353032804</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.601148992132607</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S22" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>80.13815491435827</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I23" t="n">
         <v>2.701627844419818</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T23" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24271,10 +24271,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>278.5423808777343</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>133.5589388220952</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>7.06715217784145</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>74.34478587451356</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>11.45618175199536</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,10 +24454,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>196.1294258692915</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>285.807623447931</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5842916762861</v>
+        <v>96.67981252082669</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24508,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>111.2575973603336</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>44.56515633715806</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>90.30305624544593</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>58.76629034017796</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>139.5473206610679</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>365.3161899354946</v>
       </c>
       <c r="C29" t="n">
-        <v>330.7574095079106</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24691,10 +24691,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.807623447931</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>114.3566129394503</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>40.89665036916904</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I31" t="n">
-        <v>82.06387392042396</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>215.970681934871</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>167.12717929898</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>402.4936277569416</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I32" t="n">
         <v>2.701627844419818</v>
@@ -24976,16 +24976,16 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>202.143949218202</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>86.47275784111034</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>44.56515633715804</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>153.8989246382513</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6146493334786</v>
@@ -25095,7 +25095,7 @@
         <v>139.5473206610679</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>210.5470383591243</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>354.0363426156744</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H35" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>2.701627844419818</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>289.5267256598309</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>27.52941767822006</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>25.68865780277494</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>132.5516500039578</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>143.4240764214842</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25393,22 +25393,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>233.8109175774325</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>2.701627844419818</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>63.13793670029929</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>8.027041798619621</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>40.89665036916864</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>111.7761061675398</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>115.4541014855538</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>36.29752732478437</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.79764447580078</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>66.01049234073227</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>74.61559865920502</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T42" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.08329432569806</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>177.3423910623173</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>131.8553260382689</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H44" t="n">
         <v>285.807623447931</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T44" t="n">
         <v>210.5842916762861</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>156.303897207919</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>8.027041798620147</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>66.01049234073224</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>148.6295305825844</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>45.25509376580011</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S46" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386905.6557672305</v>
+        <v>386905.6557672306</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386905.6557672305</v>
+        <v>386905.6557672306</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>386905.6557672305</v>
+        <v>386905.6557672306</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>386905.6557672305</v>
+        <v>386905.6557672306</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>386905.6557672306</v>
+        <v>386905.6557672305</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>386905.6557672307</v>
+        <v>386905.6557672305</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>386905.6557672306</v>
+        <v>386905.6557672305</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386905.6557672306</v>
+        <v>386905.6557672307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386905.6557672306</v>
+        <v>386905.6557672305</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>502207.5158555078</v>
       </c>
       <c r="C2" t="n">
-        <v>502207.5158555078</v>
+        <v>502207.5158555079</v>
       </c>
       <c r="D2" t="n">
-        <v>502207.5158555079</v>
+        <v>502207.5158555077</v>
       </c>
       <c r="E2" t="n">
         <v>287021.8216765985</v>
@@ -26331,7 +26331,7 @@
         <v>287021.8216765985</v>
       </c>
       <c r="H2" t="n">
-        <v>287021.8216765985</v>
+        <v>287021.8216765986</v>
       </c>
       <c r="I2" t="n">
         <v>287021.8216765985</v>
@@ -26355,7 +26355,7 @@
         <v>287021.8216765985</v>
       </c>
       <c r="P2" t="n">
-        <v>287021.8216765984</v>
+        <v>287021.8216765985</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>563636.1310597792</v>
+        <v>563636.1310597794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>365422.9858327082</v>
       </c>
       <c r="E4" t="n">
-        <v>26204.2850838048</v>
+        <v>26204.28508380482</v>
       </c>
       <c r="F4" t="n">
         <v>26204.2850838048</v>
@@ -26435,16 +26435,16 @@
         <v>26204.28508380481</v>
       </c>
       <c r="H4" t="n">
-        <v>26204.2850838048</v>
+        <v>26204.28508380483</v>
       </c>
       <c r="I4" t="n">
-        <v>26204.28508380481</v>
+        <v>26204.28508380482</v>
       </c>
       <c r="J4" t="n">
         <v>26204.28508380481</v>
       </c>
       <c r="K4" t="n">
-        <v>26204.28508380481</v>
+        <v>26204.2850838048</v>
       </c>
       <c r="L4" t="n">
         <v>26204.28508380481</v>
@@ -26453,10 +26453,10 @@
         <v>26204.28508380481</v>
       </c>
       <c r="N4" t="n">
-        <v>26204.28508380482</v>
+        <v>26204.28508380481</v>
       </c>
       <c r="O4" t="n">
-        <v>26204.2850838048</v>
+        <v>26204.28508380481</v>
       </c>
       <c r="P4" t="n">
         <v>26204.2850838048</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>39031.33714783084</v>
+      </c>
+      <c r="F5" t="n">
         <v>39031.33714783083</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39031.33714783082</v>
       </c>
       <c r="G5" t="n">
         <v>39031.33714783083</v>
       </c>
       <c r="H5" t="n">
-        <v>39031.33714783083</v>
+        <v>39031.33714783084</v>
       </c>
       <c r="I5" t="n">
         <v>39031.33714783083</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103156.9300227996</v>
+        <v>103148.1303371702</v>
       </c>
       <c r="C6" t="n">
-        <v>103156.9300227996</v>
+        <v>103148.1303371703</v>
       </c>
       <c r="D6" t="n">
-        <v>103156.9300227998</v>
+        <v>103148.1303371701</v>
       </c>
       <c r="E6" t="n">
-        <v>-341849.9316148163</v>
+        <v>-342552.8787010231</v>
       </c>
       <c r="F6" t="n">
-        <v>221786.1994449628</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="G6" t="n">
-        <v>221786.1994449629</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="H6" t="n">
-        <v>221786.1994449629</v>
+        <v>221083.2523587564</v>
       </c>
       <c r="I6" t="n">
-        <v>221786.1994449629</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="J6" t="n">
-        <v>221786.1994449629</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="K6" t="n">
-        <v>221786.1994449628</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="L6" t="n">
-        <v>221786.1994449628</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="M6" t="n">
-        <v>109535.0962299167</v>
+        <v>108832.1491437101</v>
       </c>
       <c r="N6" t="n">
-        <v>221786.1994449628</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="O6" t="n">
-        <v>221786.1994449629</v>
+        <v>221083.2523587563</v>
       </c>
       <c r="P6" t="n">
-        <v>221786.1994449628</v>
+        <v>221083.2523587563</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021746</v>
       </c>
       <c r="F3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021747</v>
       </c>
       <c r="G3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021746</v>
       </c>
       <c r="H3" t="n">
         <v>534.1591604021746</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="F4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="G4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="H4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="I4" t="n">
         <v>450.4386093924906</v>
@@ -26816,7 +26816,7 @@
         <v>450.4386093924906</v>
       </c>
       <c r="K4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="L4" t="n">
         <v>450.4386093924906</v>
@@ -26828,7 +26828,7 @@
         <v>450.4386093924906</v>
       </c>
       <c r="O4" t="n">
-        <v>450.4386093924905</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="P4" t="n">
         <v>450.4386093924905</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>534.1591604021745</v>
+        <v>534.1591604021746</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924904</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I11" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J11" t="n">
         <v>182.2556423725993</v>
@@ -31767,31 +31767,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L11" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M11" t="n">
-        <v>377.0599986893199</v>
+        <v>377.05999868932</v>
       </c>
       <c r="N11" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O11" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q11" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S11" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T11" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U11" t="n">
         <v>0.1717898807323575</v>
@@ -31837,13 +31837,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I12" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J12" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K12" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L12" t="n">
         <v>249.4674456199024</v>
@@ -31855,25 +31855,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O12" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P12" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q12" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R12" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S12" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T12" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H13" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I13" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J13" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K13" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L13" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M13" t="n">
         <v>150.9919082428638</v>
@@ -31937,22 +31937,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P13" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R13" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S13" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T13" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.147373509154469</v>
+        <v>2.14737350915447</v>
       </c>
       <c r="H14" t="n">
-        <v>21.99178895062821</v>
+        <v>21.99178895062822</v>
       </c>
       <c r="I14" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167778</v>
       </c>
       <c r="J14" t="n">
         <v>182.2556423725993</v>
       </c>
       <c r="K14" t="n">
-        <v>273.153963015108</v>
+        <v>273.1539630151081</v>
       </c>
       <c r="L14" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M14" t="n">
-        <v>377.0599986893199</v>
+        <v>377.05999868932</v>
       </c>
       <c r="N14" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O14" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q14" t="n">
-        <v>231.8921810367048</v>
+        <v>231.8921810367049</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S14" t="n">
-        <v>48.93327383985751</v>
+        <v>48.93327383985753</v>
       </c>
       <c r="T14" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323696</v>
       </c>
       <c r="U14" t="n">
         <v>0.1717898807323575</v>
@@ -32074,43 +32074,43 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I15" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J15" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K15" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L15" t="n">
-        <v>249.4674456199024</v>
+        <v>249.4674456199025</v>
       </c>
       <c r="M15" t="n">
-        <v>291.1167424191851</v>
+        <v>291.1167424191852</v>
       </c>
       <c r="N15" t="n">
-        <v>298.8217363461184</v>
+        <v>298.8217363461185</v>
       </c>
       <c r="O15" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P15" t="n">
-        <v>219.3983162791498</v>
+        <v>219.3983162791499</v>
       </c>
       <c r="Q15" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R15" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050177</v>
       </c>
       <c r="S15" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T15" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939608</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334297</v>
       </c>
       <c r="H16" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529955</v>
       </c>
       <c r="I16" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J16" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750348</v>
       </c>
       <c r="K16" t="n">
-        <v>111.9107224580293</v>
+        <v>111.9107224580294</v>
       </c>
       <c r="L16" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M16" t="n">
-        <v>150.9919082428638</v>
+        <v>150.9919082428639</v>
       </c>
       <c r="N16" t="n">
-        <v>147.4016581483575</v>
+        <v>147.4016581483576</v>
       </c>
       <c r="O16" t="n">
-        <v>136.1492889497215</v>
+        <v>136.1492889497216</v>
       </c>
       <c r="P16" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072838</v>
       </c>
       <c r="R16" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031402</v>
       </c>
       <c r="S16" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T16" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361017</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I17" t="n">
-        <v>82.78661721167774</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J17" t="n">
         <v>182.2556423725993</v>
@@ -32241,31 +32241,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L17" t="n">
-        <v>338.8716450458941</v>
+        <v>338.8716450458942</v>
       </c>
       <c r="M17" t="n">
-        <v>377.0599986893199</v>
+        <v>377.05999868932</v>
       </c>
       <c r="N17" t="n">
-        <v>383.161223672205</v>
+        <v>383.1612236722052</v>
       </c>
       <c r="O17" t="n">
-        <v>361.8082783405503</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7949948332993</v>
+        <v>308.7949948332994</v>
       </c>
       <c r="Q17" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8899511944245</v>
+        <v>134.8899511944246</v>
       </c>
       <c r="S17" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T17" t="n">
-        <v>9.400127536323692</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U17" t="n">
         <v>0.1717898807323575</v>
@@ -32311,13 +32311,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I18" t="n">
-        <v>39.55801329393463</v>
+        <v>39.55801329393464</v>
       </c>
       <c r="J18" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K18" t="n">
-        <v>185.5296019672345</v>
+        <v>185.5296019672346</v>
       </c>
       <c r="L18" t="n">
         <v>249.4674456199024</v>
@@ -32329,25 +32329,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O18" t="n">
-        <v>273.3635091918562</v>
+        <v>273.3635091918563</v>
       </c>
       <c r="P18" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.6619641919329</v>
+        <v>146.661964191933</v>
       </c>
       <c r="R18" t="n">
-        <v>71.33544410050175</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S18" t="n">
-        <v>21.34117022927554</v>
+        <v>21.34117022927555</v>
       </c>
       <c r="T18" t="n">
-        <v>4.631059135939606</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07558856043427001</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9632378302334293</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H19" t="n">
-        <v>8.564059981529951</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I19" t="n">
-        <v>28.9671885673835</v>
+        <v>28.96718856738351</v>
       </c>
       <c r="J19" t="n">
-        <v>68.10091459750345</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K19" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L19" t="n">
-        <v>143.2071952330682</v>
+        <v>143.2071952330683</v>
       </c>
       <c r="M19" t="n">
         <v>150.9919082428638</v>
@@ -32411,22 +32411,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P19" t="n">
-        <v>116.4992372129594</v>
+        <v>116.4992372129595</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.65803322072834</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R19" t="n">
-        <v>43.310675530314</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S19" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T19" t="n">
-        <v>4.115652547361015</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05254024528545984</v>
+        <v>0.05254024528545986</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>383.1612236722052</v>
       </c>
       <c r="O44" t="n">
-        <v>361.8082783405499</v>
+        <v>361.8082783405504</v>
       </c>
       <c r="P44" t="n">
         <v>308.7949948332994</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K11" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L11" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M11" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N11" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O11" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P11" t="n">
         <v>215.1456315524152</v>
@@ -35433,7 +35433,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R11" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.18097322097397</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K12" t="n">
-        <v>129.7038191826191</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L12" t="n">
-        <v>450.4386093924904</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M12" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N12" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O12" t="n">
-        <v>215.6120301918562</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P12" t="n">
-        <v>260.2757740215632</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.9693456870942</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="R12" t="n">
-        <v>101.1935444667946</v>
+        <v>92.94706109005297</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.66776891454803</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K13" t="n">
-        <v>268.0241848037242</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L13" t="n">
-        <v>405.729518748281</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M13" t="n">
         <v>443.1778238393217</v>
@@ -35582,13 +35582,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O13" t="n">
-        <v>80.07439087672518</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P13" t="n">
-        <v>60.71939557305466</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.08461912054531</v>
+        <v>21.80892409921164</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K14" t="n">
-        <v>184.0175733418909</v>
+        <v>184.017573341891</v>
       </c>
       <c r="L14" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M14" t="n">
-        <v>283.7697742322745</v>
+        <v>283.7697742322746</v>
       </c>
       <c r="N14" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155859</v>
       </c>
       <c r="O14" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P14" t="n">
-        <v>215.1456315524152</v>
+        <v>215.1456315524153</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.8583766375528</v>
+        <v>141.8583766375529</v>
       </c>
       <c r="R14" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970107</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.18097322097397</v>
+        <v>57.18097322097403</v>
       </c>
       <c r="K15" t="n">
-        <v>196.626671395129</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L15" t="n">
-        <v>193.3529218090533</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M15" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807678</v>
       </c>
       <c r="N15" t="n">
-        <v>245.6283429523684</v>
+        <v>245.6283429523685</v>
       </c>
       <c r="O15" t="n">
-        <v>215.6120301918562</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P15" t="n">
-        <v>450.4386093924904</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.9693456870942</v>
+        <v>442.1921260157486</v>
       </c>
       <c r="R15" t="n">
         <v>101.1935444667946</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.32571197650398</v>
+        <v>82.32571197650401</v>
       </c>
       <c r="K16" t="n">
-        <v>268.0241848037242</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L16" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M16" t="n">
-        <v>94.72696574408377</v>
+        <v>172.7731807481007</v>
       </c>
       <c r="N16" t="n">
         <v>431.0771959203275</v>
       </c>
       <c r="O16" t="n">
-        <v>80.07439087672518</v>
+        <v>80.07439087672523</v>
       </c>
       <c r="P16" t="n">
-        <v>274.7489674127085</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.8479623141736</v>
+        <v>19.29850756080282</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>108.9320510392913</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K17" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L17" t="n">
-        <v>243.3862469830493</v>
+        <v>243.3862469830494</v>
       </c>
       <c r="M17" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N17" t="n">
-        <v>290.2489329155857</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O17" t="n">
-        <v>268.6185027147671</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P17" t="n">
         <v>215.1456315524152</v>
@@ -35907,7 +35907,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R17" t="n">
-        <v>47.57780837970101</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J18" t="n">
-        <v>57.18097322097397</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K18" t="n">
-        <v>450.4386093924905</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L18" t="n">
-        <v>193.3529218090533</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M18" t="n">
-        <v>233.5524586807676</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N18" t="n">
-        <v>277.1163330711516</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O18" t="n">
-        <v>215.6120301918562</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P18" t="n">
-        <v>165.138681276346</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.9693456870942</v>
+        <v>423.1752181877765</v>
       </c>
       <c r="R18" t="n">
         <v>101.1935444667946</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.66776891454803</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K19" t="n">
-        <v>59.66035289896249</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L19" t="n">
         <v>405.729518748281</v>
@@ -36053,16 +36053,16 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N19" t="n">
-        <v>431.0771959203275</v>
+        <v>296.6559096647438</v>
       </c>
       <c r="O19" t="n">
-        <v>80.07439087672518</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P19" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.91563943629929</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>57.180973220974</v>
       </c>
       <c r="K21" t="n">
-        <v>129.7038191826192</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="L21" t="n">
         <v>193.3529218090534</v>
@@ -36211,10 +36211,10 @@
         <v>233.5524586807677</v>
       </c>
       <c r="N21" t="n">
-        <v>432.8659357241141</v>
+        <v>258.0994252431794</v>
       </c>
       <c r="O21" t="n">
-        <v>450.4386093924905</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P21" t="n">
         <v>165.1386812763461</v>
@@ -36223,7 +36223,7 @@
         <v>89.96934568709423</v>
       </c>
       <c r="R21" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K22" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L22" t="n">
-        <v>91.08931787757518</v>
+        <v>356.2262789989275</v>
       </c>
       <c r="M22" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N22" t="n">
         <v>431.0771959203275</v>
       </c>
       <c r="O22" t="n">
-        <v>398.3317236229277</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P22" t="n">
         <v>324.2522071620629</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.01690782797241</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.7758814879579</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K24" t="n">
         <v>129.7038191826192</v>
@@ -36457,10 +36457,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q24" t="n">
-        <v>450.4386093924906</v>
+        <v>196.0624250312707</v>
       </c>
       <c r="R24" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>16.66776891454804</v>
       </c>
       <c r="K25" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L25" t="n">
-        <v>90.56421449983227</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M25" t="n">
         <v>443.1778238393217</v>
@@ -36536,7 +36536,7 @@
         <v>324.2522071620629</v>
       </c>
       <c r="Q25" t="n">
-        <v>146.8479623141737</v>
+        <v>40.04648997048675</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J27" t="n">
         <v>303.3106742054521</v>
@@ -36679,7 +36679,7 @@
         <v>129.7038191826192</v>
       </c>
       <c r="L27" t="n">
-        <v>299.44600115323</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M27" t="n">
         <v>233.5524586807677</v>
@@ -36694,7 +36694,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R27" t="n">
         <v>101.1935444667946</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K28" t="n">
         <v>59.66035289896251</v>
       </c>
       <c r="L28" t="n">
-        <v>281.7971958704069</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M28" t="n">
         <v>443.1778238393217</v>
@@ -36767,7 +36767,7 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O28" t="n">
-        <v>80.0743908767252</v>
+        <v>207.6347423460096</v>
       </c>
       <c r="P28" t="n">
         <v>324.2522071620629</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J30" t="n">
         <v>303.3106742054521</v>
       </c>
       <c r="K30" t="n">
-        <v>324.655197998494</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L30" t="n">
         <v>193.3529218090534</v>
@@ -36931,10 +36931,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R30" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K31" t="n">
-        <v>268.0241848037243</v>
+        <v>198.154126273008</v>
       </c>
       <c r="L31" t="n">
-        <v>405.729518748281</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M31" t="n">
-        <v>94.7269657440838</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N31" t="n">
-        <v>190.8660781781419</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O31" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P31" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>108.9320510392912</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K32" t="n">
         <v>184.0175733418909</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J33" t="n">
         <v>303.3106742054521</v>
@@ -37165,13 +37165,13 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P33" t="n">
-        <v>360.0900600922208</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R33" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>16.66776891454804</v>
       </c>
       <c r="K34" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L34" t="n">
-        <v>88.57890133916675</v>
+        <v>354.6221294665832</v>
       </c>
       <c r="M34" t="n">
         <v>443.1778238393217</v>
@@ -37241,13 +37241,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O34" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P34" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q34" t="n">
-        <v>131.7024249406522</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J36" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K36" t="n">
         <v>129.7038191826192</v>
@@ -37405,7 +37405,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q36" t="n">
-        <v>442.1921260157488</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R36" t="n">
         <v>101.1935444667946</v>
@@ -37472,19 +37472,19 @@
         <v>405.729518748281</v>
       </c>
       <c r="M37" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N37" t="n">
-        <v>105.948031671912</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O37" t="n">
-        <v>398.3317236229277</v>
+        <v>365.9593344077609</v>
       </c>
       <c r="P37" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J39" t="n">
-        <v>303.3106742054521</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K39" t="n">
         <v>129.7038191826192</v>
@@ -37630,7 +37630,7 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M39" t="n">
-        <v>320.6286301969719</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N39" t="n">
         <v>245.6283429523684</v>
@@ -37642,10 +37642,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.96934568709423</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="R39" t="n">
-        <v>101.1935444667946</v>
+        <v>73.93015326208041</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K40" t="n">
-        <v>268.0241848037243</v>
+        <v>133.6028985481407</v>
       </c>
       <c r="L40" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M40" t="n">
-        <v>379.5051939380313</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N40" t="n">
-        <v>95.6890126399381</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O40" t="n">
-        <v>398.3317236229277</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P40" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q40" t="n">
         <v>146.8479623141737</v>
@@ -37858,7 +37858,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J42" t="n">
-        <v>173.500695009933</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K42" t="n">
         <v>129.7038191826192</v>
@@ -37867,7 +37867,7 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M42" t="n">
-        <v>450.4386093924905</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N42" t="n">
         <v>245.6283429523684</v>
@@ -37879,7 +37879,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R42" t="n">
         <v>101.1935444667946</v>
@@ -37940,25 +37940,25 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K43" t="n">
-        <v>268.0241848037243</v>
+        <v>163.7964238971762</v>
       </c>
       <c r="L43" t="n">
-        <v>398.8576872460677</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M43" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N43" t="n">
         <v>431.0771959203275</v>
       </c>
       <c r="O43" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P43" t="n">
         <v>60.71939557305469</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>290.2489329155858</v>
       </c>
       <c r="O44" t="n">
-        <v>268.6185027147668</v>
+        <v>268.6185027147673</v>
       </c>
       <c r="P44" t="n">
         <v>215.1456315524152</v>
@@ -38098,7 +38098,7 @@
         <v>303.3106742054521</v>
       </c>
       <c r="K45" t="n">
-        <v>305.6382901705212</v>
+        <v>216.779990698823</v>
       </c>
       <c r="L45" t="n">
         <v>193.3529218090534</v>
@@ -38119,7 +38119,7 @@
         <v>89.96934568709423</v>
       </c>
       <c r="R45" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K46" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L46" t="n">
         <v>88.57890133916675</v>
@@ -38186,13 +38186,13 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N46" t="n">
-        <v>95.6890126399381</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O46" t="n">
-        <v>334.6590937216368</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P46" t="n">
-        <v>324.2522071620629</v>
+        <v>133.5552258851441</v>
       </c>
       <c r="Q46" t="n">
         <v>146.8479623141737</v>
